--- a/it/arches-stack.xlsx
+++ b/it/arches-stack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\it\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49EB1F8E-A4E3-4E5F-9D94-13B1F76ABC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2352A8C0-0364-4200-8895-19F598BCE63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{9A2A53E5-3A5A-407F-BDD7-B40851996F00}"/>
   </bookViews>
@@ -47,13 +47,25 @@
     <t>WSGI</t>
   </si>
   <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAMENA </t>
-  </si>
-  <si>
     <t>Arches</t>
+  </si>
+  <si>
+    <t>Pg</t>
+  </si>
+  <si>
+    <t>EC2</t>
+  </si>
+  <si>
+    <t>EAMENA</t>
+  </si>
+  <si>
+    <t>Django/Python</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>Ubuntu Server AMI</t>
   </si>
   <si>
     <r>
@@ -64,8 +76,9 @@
         <vertAlign val="superscript"/>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>rd</t>
     </r>
@@ -73,73 +86,22 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> part sofware</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>Django</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Python</t>
-    </r>
-  </si>
-  <si>
-    <t>Pg</t>
-  </si>
-  <si>
-    <t>EC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubuntu Server AMI </t>
-  </si>
-  <si>
-    <r>
-      <t>AWS</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>Elastic Search</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,34 +112,31 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -254,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -405,119 +364,182 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,125 +855,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C9635D-8AD2-4927-9D7C-5F03E40FC689}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="C4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
     </row>
-    <row r="4" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
     </row>
-    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="19"/>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
     </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/it/arches-stack.xlsx
+++ b/it/arches-stack.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\it\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2352A8C0-0364-4200-8895-19F598BCE63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A30E56-EB12-4E31-A748-20E0E413D0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{9A2A53E5-3A5A-407F-BDD7-B40851996F00}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A2A53E5-3A5A-407F-BDD7-B40851996F00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,8 +436,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -447,7 +495,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -457,89 +504,41 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,108 +857,107 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="8" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="11"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/it/arches-stack.xlsx
+++ b/it/arches-stack.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\it\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A30E56-EB12-4E31-A748-20E0E413D0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753EE6D0-F631-4D0A-96FD-1FDD8257DA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A2A53E5-3A5A-407F-BDD7-B40851996F00}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>UI</t>
-  </si>
-  <si>
     <t>Apache</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>Arches</t>
   </si>
   <si>
-    <t>Pg</t>
-  </si>
-  <si>
     <t>EC2</t>
   </si>
   <si>
@@ -60,12 +54,6 @@
   </si>
   <si>
     <t>Django/Python</t>
-  </si>
-  <si>
-    <t>AWS</t>
-  </si>
-  <si>
-    <t>Ubuntu Server AMI</t>
   </si>
   <si>
     <r>
@@ -74,7 +62,7 @@
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="12"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -84,7 +72,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -94,14 +82,26 @@
     </r>
   </si>
   <si>
-    <t>Elastic Search</t>
+    <t>Postgres</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>Elasticsearch</t>
+  </si>
+  <si>
+    <t>Amazon Web Service</t>
+  </si>
+  <si>
+    <t>Ubuntu 20.04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,21 +110,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -132,7 +125,7 @@
     </font>
     <font>
       <vertAlign val="superscript"/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -213,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -222,148 +215,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -372,37 +253,52 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -413,17 +309,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -436,109 +363,113 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,110 +785,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C9635D-8AD2-4927-9D7C-5F03E40FC689}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" ht="44.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="C4" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
